--- a/角磨机分析.xlsx
+++ b/角磨机分析.xlsx
@@ -11,10 +11,10 @@
     <sheet name="角磨机分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$201</definedName>
-    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$220</definedName>
+    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$220</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="312">
   <si>
     <t>BarCode</t>
   </si>
@@ -923,6 +923,66 @@
   </si>
   <si>
     <t>o6qzt0EV29lJth2CkWpdHhfUWBYA</t>
+  </si>
+  <si>
+    <t>f47f682c5f1ff9dc00b05158358b7a95</t>
+  </si>
+  <si>
+    <t>2a0398605f1ffa920094207c53fdd4eb</t>
+  </si>
+  <si>
+    <t>2a0398605f1ffa920094207d01dde5b2</t>
+  </si>
+  <si>
+    <t>15d399db5f1ffa9200ae48eb0122dc98</t>
+  </si>
+  <si>
+    <t>94f505805f1ffa92009b06181e3884a1</t>
+  </si>
+  <si>
+    <t>9bf625a55f1ffa92008c092b1cd79b83</t>
+  </si>
+  <si>
+    <t>08e51e265f1ffd010092340d3b4db9a3</t>
+  </si>
+  <si>
+    <t>0d06a2fd5f22430e0008ecae35c9d85f</t>
+  </si>
+  <si>
+    <t>d1cc6d125f264bb200327bde1b277059</t>
+  </si>
+  <si>
+    <t>f2716ee45f26865c003df23b4d4b4f9e</t>
+  </si>
+  <si>
+    <t>b58263a25f26a0eb00432dad1eeb4f2a</t>
+  </si>
+  <si>
+    <t>b58263a25f2780dd004aab0c577e83ac</t>
+  </si>
+  <si>
+    <t>b31a516f5f278124003c4dba1e622ba5</t>
+  </si>
+  <si>
+    <t>cb1a2f465f2782440048fd3f1723fa52</t>
+  </si>
+  <si>
+    <t>b58263a25f27cc2f004fdb2d0422858c</t>
+  </si>
+  <si>
+    <t>b31a516f5f28be73004959c30265492d</t>
+  </si>
+  <si>
+    <t>乔雪峰</t>
+  </si>
+  <si>
+    <t>3adec2825f29449f00030f003d78006e</t>
+  </si>
+  <si>
+    <t>b1cb7d3a5f2a1b4d000d58302bb1985d</t>
+  </si>
+  <si>
+    <t>043ba0325f2a211a000b1e603fa9d5ab</t>
   </si>
 </sst>
 </file>
@@ -1367,15 +1427,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -1880,25 +1940,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>4500</v>
+        <v>2150</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>14</v>
@@ -1915,25 +1975,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>2150</v>
+        <v>4500</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -3630,25 +3690,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1">
-        <v>2150</v>
+        <v>4500</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>14</v>
@@ -3665,25 +3725,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1">
-        <v>4500</v>
+        <v>2150</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>14</v>
@@ -8420,8 +8480,673 @@
         <v>44038.746689814812</v>
       </c>
     </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>14</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" s="1">
+        <v>1</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K202" s="11">
+        <v>44040.674745370372</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" s="1">
+        <v>3</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K203" s="11">
+        <v>44040.676840277774</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" s="1">
+        <v>11</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K204" s="11">
+        <v>44040.676840277774</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" s="1">
+        <v>2</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K205" s="11">
+        <v>44040.676840277774</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" s="1">
+        <v>6</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K206" s="11">
+        <v>44040.676840277774</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>9</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" s="1">
+        <v>8</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K207" s="11">
+        <v>44040.676840277774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>3</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H208" s="1">
+        <v>1</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K208" s="11">
+        <v>44040.684027777781</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" s="1">
+        <v>250</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K209" s="11">
+        <v>44042.40865740741</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D210" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" s="1">
+        <v>5</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K210" s="11">
+        <v>44045.468333333331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H211" s="1">
+        <v>300</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="11">
+        <v>44045.642164351855</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>15</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D212" s="1">
+        <v>230</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H212" s="1">
+        <v>5</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K212" s="11">
+        <v>44045.720833333333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H213" s="1">
+        <v>1</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K213" s="11">
+        <v>44046.384398148148</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>3</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H214" s="1">
+        <v>1</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K214" s="11">
+        <v>44046.385185185187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D215" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H215" s="1">
+        <v>1</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" s="11">
+        <v>44046.388472222221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H216" s="1">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K216" s="11">
+        <v>44046.607557870368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" s="1">
+        <v>20</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K217" s="11">
+        <v>44047.32539351852</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" s="1">
+        <v>100</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K218" s="11">
+        <v>44047.722939814812</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" s="1">
+        <v>42</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K219" s="11">
+        <v>44048.359016203707</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>15</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D220" s="1">
+        <v>230</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H220" s="1">
+        <v>23</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="11">
+        <v>44048.376215277778</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K201"/>
+  <autoFilter ref="B1:K220"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8433,7 +9158,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8865,7 +9590,7 @@
       </c>
       <c r="D7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -9007,7 +9732,7 @@
       </c>
       <c r="E9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -9055,7 +9780,7 @@
       </c>
       <c r="Q9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资部")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -9603,11 +10328,11 @@
       </c>
       <c r="B19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,B$18)</f>
-        <v>1760</v>
+        <v>2060</v>
       </c>
       <c r="C19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,C$18)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,D$18)</f>
@@ -9680,7 +10405,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,D$18)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,E$18)</f>
@@ -9741,7 +10466,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,B$18)</f>
-        <v>746</v>
+        <v>996</v>
       </c>
       <c r="C21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,C$18)</f>
@@ -9879,7 +10604,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,B$18)</f>
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="C23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,C$18)</f>
@@ -9960,7 +10685,7 @@
       </c>
       <c r="E24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,E$18)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,F$18)</f>
@@ -9972,7 +10697,7 @@
       </c>
       <c r="H24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,H$18)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,I$18)</f>
@@ -9980,11 +10705,11 @@
       </c>
       <c r="J24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,J$18)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,K$18)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,L$18)</f>
@@ -10008,7 +10733,7 @@
       </c>
       <c r="Q24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,Q$18)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -10086,11 +10811,11 @@
       </c>
       <c r="B26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,B$18)</f>
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="C26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,C$18)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,D$18)</f>
@@ -10146,7 +10871,7 @@
       </c>
       <c r="Q26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,Q$18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -10501,7 +11226,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10">
         <f t="shared" ref="E32:P32" si="1">E14-SUM(E19:E29)</f>
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
@@ -10513,7 +11238,7 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="1"/>
@@ -10521,11 +11246,11 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="1"/>
@@ -10549,7 +11274,7 @@
       </c>
       <c r="Q32" s="10">
         <f>Q14-SUM(Q19:Q29)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -10684,7 +11409,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:Q35" si="3">D3-D20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="3"/>
@@ -10952,11 +11677,11 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:Q39" si="7">D7-D24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="7"/>
@@ -10968,7 +11693,7 @@
       </c>
       <c r="H39" s="5">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
@@ -10976,11 +11701,11 @@
       </c>
       <c r="J39" s="5">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="7"/>
@@ -11004,7 +11729,7 @@
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -11090,7 +11815,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="9"/>
@@ -11138,7 +11863,7 @@
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">

--- a/角磨机分析.xlsx
+++ b/角磨机分析.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="3" r:id="rId1"/>
     <sheet name="角磨机分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$220</definedName>
-    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$315</definedName>
+    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$315</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="415">
   <si>
     <t>BarCode</t>
   </si>
@@ -983,6 +983,315 @@
   </si>
   <si>
     <t>043ba0325f2a211a000b1e603fa9d5ab</t>
+  </si>
+  <si>
+    <t>cfe347375f2a8bc6000f78272fa257bd</t>
+  </si>
+  <si>
+    <t>桂小明</t>
+  </si>
+  <si>
+    <t>4a46c0515f2d1d3f0036d61e5a8fd165</t>
+  </si>
+  <si>
+    <t>4a46c0515f2e6c540046e6df65d6abe2</t>
+  </si>
+  <si>
+    <t>5ddc1fbd5f34b2e00072c2826de5ade9</t>
+  </si>
+  <si>
+    <t>3adec2825f37621900bfa0513e20d58f</t>
+  </si>
+  <si>
+    <t>3adec2825f38ffef00cf60e349fe76c7</t>
+  </si>
+  <si>
+    <t>4a46c0515f3918cb00b6b61f160e32f7</t>
+  </si>
+  <si>
+    <t>5ddc1fbd5f39ef05009b5e3d010fc9df</t>
+  </si>
+  <si>
+    <t>c57dfbdc5f3b3f34000a675208c80162</t>
+  </si>
+  <si>
+    <t>65825b355f3f8853000d707d5cb9e915</t>
+  </si>
+  <si>
+    <t>6518b7395f3f91cf0010786510a887b8</t>
+  </si>
+  <si>
+    <t>b5416b755f3f91cf001373522c8c7ce3</t>
+  </si>
+  <si>
+    <t>6518b7395f3f91cf001078683c7ba86b</t>
+  </si>
+  <si>
+    <t>7498b5fe5f3f91cf00110a816e31f7aa</t>
+  </si>
+  <si>
+    <t>7498b5fe5f4100f3001fb3a717859ed2</t>
+  </si>
+  <si>
+    <t>b5416b755f41d549002b158955cbe8e3</t>
+  </si>
+  <si>
+    <t>6518b7395f41fc8300268905621164c1</t>
+  </si>
+  <si>
+    <t>ac5f38825f432b900031f7b2072d5cc0</t>
+  </si>
+  <si>
+    <t>ac5f38825f432b900031f7b404e5b010</t>
+  </si>
+  <si>
+    <t>8a6c3bf65f432b90002920a262ce83ee</t>
+  </si>
+  <si>
+    <t>6518b7395f432b900030a0692af5331b</t>
+  </si>
+  <si>
+    <t>6518b7395f432b900030a06c6fb6f042</t>
+  </si>
+  <si>
+    <t>6518b7395f448cae0045e26c76b9e90b</t>
+  </si>
+  <si>
+    <t>aa133ce55f448cf4003782662d6121a0</t>
+  </si>
+  <si>
+    <t>唐红明</t>
+  </si>
+  <si>
+    <t>7498b5fe5f4cd5a300b450b4597b47b6</t>
+  </si>
+  <si>
+    <t>8a6c3bf65f4db0b6009b98034edccd66</t>
+  </si>
+  <si>
+    <t>b5416b755f4dcecb00de65805f4fc847</t>
+  </si>
+  <si>
+    <t>b5416b755f4f5cdd00f719cc1f31289c</t>
+  </si>
+  <si>
+    <t>60173c665f4f5d2c00be4d3101fdfe14</t>
+  </si>
+  <si>
+    <t>ac5f38825f50641b00e4a15e24eebac9</t>
+  </si>
+  <si>
+    <t>b5416b755f50b57c010cbc1b3e46b2a7</t>
+  </si>
+  <si>
+    <t>aa133ce55f57443100ee14a802786c3e</t>
+  </si>
+  <si>
+    <t>ac5f38825f584ee2013b6ff03f16a868</t>
+  </si>
+  <si>
+    <t>余招飞</t>
+  </si>
+  <si>
+    <t>8a6c3bf65f598eba010a78c94b508299</t>
+  </si>
+  <si>
+    <t>6518b7395f598ee4013dd6854f7aadae</t>
+  </si>
+  <si>
+    <t>7498b5fe5f5997940147083b63dcbcb0</t>
+  </si>
+  <si>
+    <t>6518b7395f599794013e23e4154df00e</t>
+  </si>
+  <si>
+    <t>ac5f38825f5997940149d5f03bf6775a</t>
+  </si>
+  <si>
+    <t>aa133ce55f5997940101ece859c1bae9</t>
+  </si>
+  <si>
+    <t>60173c665f5997940120bc6c15653689</t>
+  </si>
+  <si>
+    <t>aa133ce55f5999170101f6ea08874492</t>
+  </si>
+  <si>
+    <t>60173c665f5999170120c7831468dead</t>
+  </si>
+  <si>
+    <t>7498b5fe5f599917014714d5028942be</t>
+  </si>
+  <si>
+    <t>7498b5fe5f599917014714d630c2f5f8</t>
+  </si>
+  <si>
+    <t>8a6c3bf65f5eefaa0138a9927266b8fc</t>
+  </si>
+  <si>
+    <t>ac5f38825f5f3fd501865d6d2c9ee936</t>
+  </si>
+  <si>
+    <t>ac5f38825f5f3fd501865d6e2c04c08a</t>
+  </si>
+  <si>
+    <t>ac5f38825f5f3fd501865d6f0c8aa9a3</t>
+  </si>
+  <si>
+    <t>60173c665f5f3fd50154846d4ea5fedd</t>
+  </si>
+  <si>
+    <t>6057d84c5f617778000dc68216acc439</t>
+  </si>
+  <si>
+    <t>5f3dc7b45f62fc02002297c501c75c54</t>
+  </si>
+  <si>
+    <t>黄勇</t>
+  </si>
+  <si>
+    <t>e373396c5f66b9ed00238ad128f58c6b</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f671e7d0027235307f919b0</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f682bf000306be4382e8378</t>
+  </si>
+  <si>
+    <t>e656fa635f6864c5003689001ca2bdf8</t>
+  </si>
+  <si>
+    <t>e373396c5f6867930034a7c55b092feb</t>
+  </si>
+  <si>
+    <t>e373396c5f6887330036583f241925fb</t>
+  </si>
+  <si>
+    <t>o6qzt0FQhEWKbDy4mlprmAICDiJY</t>
+  </si>
+  <si>
+    <t>8e5be7055f6c59d90079a8ae5b68f9ec</t>
+  </si>
+  <si>
+    <t>b8df3bd65f6d82f8006b024a0f10d1c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   辅材供应商 DL</t>
+  </si>
+  <si>
+    <t>陈洪嗯</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f704c92009362580000bedf</t>
+  </si>
+  <si>
+    <t>8e5be7055f70513000ac59131cec53bf</t>
+  </si>
+  <si>
+    <t>8e5be7055f70513000ac59147a87bf94</t>
+  </si>
+  <si>
+    <t>e373396c5f70513000916f9a01131899</t>
+  </si>
+  <si>
+    <t>d81cd5415f705130007e80e10ee58291</t>
+  </si>
+  <si>
+    <t>e656fa635f72b9e600b2f75f48856f1b</t>
+  </si>
+  <si>
+    <t>e373396c5f72b9e600ae2e2463e3788e</t>
+  </si>
+  <si>
+    <t>c54bd3a25f72b9e6008f6bc444e85f00</t>
+  </si>
+  <si>
+    <t>b8df3bd65f72b9e6009d090d39ca7867</t>
+  </si>
+  <si>
+    <t>c54bd3a25f73fcaa009bfdd800f99bd3</t>
+  </si>
+  <si>
+    <t>b8df3bd65f73fcf900a99eb51f4ff658</t>
+  </si>
+  <si>
+    <t>8e5be7055f740e1600de4bc31a2c2f5e</t>
+  </si>
+  <si>
+    <t>d782d4875f76a1c500c074a655d6d36d</t>
+  </si>
+  <si>
+    <t>d81cd5415f77096300d01a3844138cda</t>
+  </si>
+  <si>
+    <t>e656fa635f7985d0010e26d35f94ce4b</t>
+  </si>
+  <si>
+    <t>d81cd5415f7a931200f22e9d09ce733d</t>
+  </si>
+  <si>
+    <t>d782d4875f7a937f00e4656236a453b2</t>
+  </si>
+  <si>
+    <t>d782d4875f7a938400e465902adf3380</t>
+  </si>
+  <si>
+    <t>d81cd5415f7bcf6500fb9361570b0f5b</t>
+  </si>
+  <si>
+    <t>d81cd5415f7bdd7b00fc069009a009de</t>
+  </si>
+  <si>
+    <t>d81cd5415f7c293600fe56943638b10e</t>
+  </si>
+  <si>
+    <t>胡传福</t>
+  </si>
+  <si>
+    <t>e656fa635f7d2bcd0136ce3327051d1b</t>
+  </si>
+  <si>
+    <t>8e5be7055f8272f00195b7dd54376d14</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f8272f0015cb07158a2508a</t>
+  </si>
+  <si>
+    <t>d782d4875f8272f30117dcab57efa83a</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f8272f3015cb09826ee1485</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f827302015cb1191a8fae31</t>
+  </si>
+  <si>
+    <t>8e5be7055f82735f0195bc826b1d0b8c</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f82735f015cb44606f10882</t>
+  </si>
+  <si>
+    <t>e656fa635f856bb9017a443f69b8daa3</t>
+  </si>
+  <si>
+    <t>b8df3bd65f856bba0149a8686940a736</t>
+  </si>
+  <si>
+    <t>c54bd3a25f856bba0133c47e6ca1f1dc</t>
+  </si>
+  <si>
+    <t>c54bd3a25f856bba0133c47f0f568edf</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f8a69fa019ef6474993bebb</t>
+  </si>
+  <si>
+    <t>8e5be7055f8a69fa01e27982770d13fb</t>
+  </si>
+  <si>
+    <t>e656fa635f8a69fa01a58b697c8561e2</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1445,7 +1754,7 @@
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -9145,8 +9454,3333 @@
         <v>44048.376215277778</v>
       </c>
     </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" s="1">
+        <v>200</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K221" s="11">
+        <v>44048.692280092589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" s="1">
+        <v>30</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K222" s="11">
+        <v>44050.640347222223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>14</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D223" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" s="1">
+        <v>5</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K223" s="11">
+        <v>44051.63318287037</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>14</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D224" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H224" s="1">
+        <v>2</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K224" s="11">
+        <v>44056.394247685188</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D225" s="1">
+        <v>230</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H225" s="1">
+        <v>18</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K225" s="11">
+        <v>44058.430474537039</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" s="1">
+        <v>100</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K226" s="11">
+        <v>44059.655706018515</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" s="1">
+        <v>47</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K227" s="11">
+        <v>44059.729363425926</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H228" s="1">
+        <v>130</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K228" s="11">
+        <v>44060.364074074074</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H229" s="1">
+        <v>300</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" s="11">
+        <v>44061.360243055555</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>2</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" s="1">
+        <v>300</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K230" s="11">
+        <v>44064.610949074071</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>9</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" s="1">
+        <v>2</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K231" s="11">
+        <v>44064.639039351852</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>7</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" s="1">
+        <v>4</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K232" s="11">
+        <v>44064.639039351852</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>12</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="1">
+        <v>9</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K233" s="11">
+        <v>44064.639039351852</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" s="1">
+        <v>12</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K234" s="11">
+        <v>44064.639039351852</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>14</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" s="1">
+        <v>2</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K235" s="11">
+        <v>44065.726863425924</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>15</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D236" s="1">
+        <v>230</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" s="1">
+        <v>2</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K236" s="11">
+        <v>44066.355995370373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>15</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D237" s="1">
+        <v>230</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H237" s="1">
+        <v>2</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K237" s="11">
+        <v>44066.473182870373</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" s="1">
+        <v>27</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K238" s="11">
+        <v>44067.370173611111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>7</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" s="1">
+        <v>7</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K239" s="11">
+        <v>44067.370173611111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>12</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" s="1">
+        <v>15</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K240" s="11">
+        <v>44067.370173611111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" s="1">
+        <v>11</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K241" s="11">
+        <v>44067.370173611111</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>3</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" s="1">
+        <v>4</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K242" s="11">
+        <v>44067.370173611111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>15</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D243" s="1">
+        <v>230</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" s="1">
+        <v>4</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" s="11">
+        <v>44068.416435185187</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="1">
+        <v>200</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K244" s="11">
+        <v>44068.417245370372</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" s="1">
+        <v>130</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K245" s="11">
+        <v>44074.700752314813</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" s="1">
+        <v>300</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="11">
+        <v>44075.349872685183</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" s="1">
+        <v>50</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" s="11">
+        <v>44075.439004629632</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" s="1">
+        <v>560</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K248" s="11">
+        <v>44076.618472222224</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>15</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D249" s="1">
+        <v>230</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H249" s="1">
+        <v>7</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K249" s="11">
+        <v>44076.620347222219</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D250" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" s="1">
+        <v>1</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K250" s="11">
+        <v>44077.3984375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>14</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D251" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" s="1">
+        <v>2</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K251" s="11">
+        <v>44077.639560185184</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" s="1">
+        <v>200</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K252" s="11">
+        <v>44082.613506944443</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H253" s="1">
+        <v>54</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" s="11">
+        <v>44083.403749999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>15</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D254" s="1">
+        <v>230</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H254" s="1">
+        <v>11</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K254" s="11">
+        <v>44084.351388888892</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" s="1">
+        <v>22</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K255" s="11">
+        <v>44084.351875</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" s="1">
+        <v>20</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K256" s="11">
+        <v>44084.377615740741</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>16</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" s="1">
+        <v>6</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K257" s="11">
+        <v>44084.377615740741</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>12</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" s="1">
+        <v>13</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K258" s="11">
+        <v>44084.377615740741</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>9</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D259" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" s="1">
+        <v>10</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K259" s="11">
+        <v>44084.377615740741</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>3</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K260" s="11">
+        <v>44084.377615740741</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>7</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D261" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" s="1">
+        <v>1</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K261" s="11">
+        <v>44084.382094907407</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" s="1">
+        <v>7</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K262" s="11">
+        <v>44084.382094907407</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>12</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K263" s="11">
+        <v>44084.382094907407</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>3</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D264" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" s="1">
+        <v>1</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K264" s="11">
+        <v>44084.382094907407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>8</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H265" s="1">
+        <v>6</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K265" s="11">
+        <v>44088.431203703702</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" s="1">
+        <v>19</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K266" s="11">
+        <v>44088.668749999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>9</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D267" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" s="1">
+        <v>11</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K267" s="11">
+        <v>44088.668749999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>12</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H268" s="1">
+        <v>13</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K268" s="11">
+        <v>44088.668749999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>7</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D269" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H269" s="1">
+        <v>7</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K269" s="11">
+        <v>44088.668749999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>15</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D270" s="1">
+        <v>230</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H270" s="1">
+        <v>1</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K270" s="11">
+        <v>44090.351597222223</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>2</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H271" s="1">
+        <v>300</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" s="11">
+        <v>44091.501851851855</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>14</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D272" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H272" s="1">
+        <v>2</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K272" s="11">
+        <v>44094.340138888889</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>3</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D273" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H273" s="1">
+        <v>2</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K273" s="11">
+        <v>44094.638078703705</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H274" s="1">
+        <v>260</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K274" s="11">
+        <v>44095.436469907407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>15</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D275" s="1">
+        <v>230</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H275" s="1">
+        <v>5</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K275" s="11">
+        <v>44095.605844907404</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>15</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D276" s="1">
+        <v>230</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" s="1">
+        <v>5</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K276" s="11">
+        <v>44095.613171296296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>14</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D277" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H277" s="1">
+        <v>2</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K277" s="11">
+        <v>44095.70685185185</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>2</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" s="1">
+        <v>300</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K278" s="11">
+        <v>44098.606562499997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>14</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D279" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K279" s="11">
+        <v>44099.486932870372</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H280" s="1">
+        <v>10</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K280" s="11">
+        <v>44101.6012962963</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H281" s="1">
+        <v>15</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K281" s="11">
+        <v>44101.614976851852</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>3</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H282" s="1">
+        <v>1</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K282" s="11">
+        <v>44101.614976851852</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>7</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H283" s="1">
+        <v>2</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K283" s="11">
+        <v>44101.614976851852</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>12</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H284" s="1">
+        <v>14</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K284" s="11">
+        <v>44101.614976851852</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H285" s="1">
+        <v>15</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K285" s="11">
+        <v>44103.44226851852</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>3</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D286" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H286" s="1">
+        <v>1</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K286" s="11">
+        <v>44103.44226851852</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>7</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H287" s="1">
+        <v>2</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K287" s="11">
+        <v>44103.44226851852</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>12</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D288" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H288" s="1">
+        <v>14</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K288" s="11">
+        <v>44103.44226851852</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H289" s="1">
+        <v>72</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K289" s="11">
+        <v>44104.398622685185</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H290" s="1">
+        <v>142</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K290" s="11">
+        <v>44104.399537037039</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>14</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D291" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H291" s="1">
+        <v>2</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K291" s="11">
+        <v>44104.450243055559</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>2</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H292" s="1">
+        <v>200</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K292" s="11">
+        <v>44106.404849537037</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>2</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" s="1">
+        <v>20</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H293" s="1">
+        <v>600</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="11">
+        <v>44106.711875000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>2</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" s="1">
+        <v>20</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H294" s="1">
+        <v>200</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K294" s="11">
+        <v>44108.597569444442</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>14</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D295" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H295" s="1">
+        <v>2</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K295" s="11">
+        <v>44109.396377314813</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D296" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H296" s="1">
+        <v>2</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K296" s="11">
+        <v>44109.396608796298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>14</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D297" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H297" s="1">
+        <v>2</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K297" s="11">
+        <v>44109.396655092591</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>16</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D298" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H298" s="1">
+        <v>1</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K298" s="11">
+        <v>44110.332638888889</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>2</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" s="1">
+        <v>20</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H299" s="1">
+        <v>260</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K299" s="11">
+        <v>44110.374363425923</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H300" s="1">
+        <v>300</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K300" s="11">
+        <v>44110.598749999997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>16</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D301" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H301" s="1">
+        <v>2</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K301" s="11">
+        <v>44111.364930555559</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>7</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H302" s="1">
+        <v>2</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K302" s="11">
+        <v>44115.368298611109</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H303" s="1">
+        <v>13</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K303" s="11">
+        <v>44115.368298611109</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>12</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H304" s="1">
+        <v>13</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K304" s="11">
+        <v>44115.368298611109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>3</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D305" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H305" s="1">
+        <v>1</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K305" s="11">
+        <v>44115.368298611109</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>7</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D306" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" s="1">
+        <v>2</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K306" s="11">
+        <v>44115.368298611109</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>12</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H307" s="1">
+        <v>1</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K307" s="11">
+        <v>44115.36959490741</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D308" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H308" s="1">
+        <v>2</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K308" s="11">
+        <v>44115.36959490741</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H309" s="1">
+        <v>13</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K309" s="11">
+        <v>44117.622499999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>7</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D310" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H310" s="1">
+        <v>2</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K310" s="11">
+        <v>44117.622499999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>12</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H311" s="1">
+        <v>13</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K311" s="11">
+        <v>44117.622499999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>3</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D312" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H312" s="1">
+        <v>1</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K312" s="11">
+        <v>44117.622499999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>7</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D313" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H313" s="1">
+        <v>8</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K313" s="11">
+        <v>44121.409918981481</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H314" s="1">
+        <v>7</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K314" s="11">
+        <v>44121.409918981481</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>12</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H315" s="1">
+        <v>8</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K315" s="11">
+        <v>44121.409918981481</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K220"/>
+  <autoFilter ref="B1:K315"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9157,8 +12791,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9310,11 +12944,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -9395,7 +13029,7 @@
       </c>
       <c r="G4" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$4,原始数据!$C:$C,G$1,原始数据!$J:$J,"物资部")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$4,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
@@ -9448,7 +13082,7 @@
       </c>
       <c r="C5" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$5,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$5,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
@@ -9521,7 +13155,7 @@
       </c>
       <c r="D6" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$6,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$6,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -9594,7 +13228,7 @@
       </c>
       <c r="E7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -9606,7 +13240,7 @@
       </c>
       <c r="H7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,I$1,原始数据!$J:$J,"物资部")</f>
@@ -9614,11 +13248,11 @@
       </c>
       <c r="J7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,J$1,原始数据!$J:$J,"物资部")</f>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -9642,7 +13276,7 @@
       </c>
       <c r="Q7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资部")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -10077,7 +13711,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -10089,7 +13723,7 @@
       </c>
       <c r="H14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,I$1,原始数据!$J:$J,"物资部")</f>
@@ -10097,11 +13731,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,J$1,原始数据!$J:$J,"物资部")</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -10125,7 +13759,7 @@
       </c>
       <c r="Q14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资部")</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -10146,7 +13780,7 @@
       </c>
       <c r="E15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,E$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,F$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -10166,11 +13800,11 @@
       </c>
       <c r="J15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,J$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,K$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,L$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -10194,7 +13828,7 @@
       </c>
       <c r="Q15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -10215,7 +13849,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>0.69047619047619047</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
@@ -10235,11 +13869,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
@@ -10263,7 +13897,7 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>0.83783783783783783</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -10328,7 +13962,7 @@
       </c>
       <c r="B19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,B$18)</f>
-        <v>2060</v>
+        <v>3570</v>
       </c>
       <c r="C19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,C$18)</f>
@@ -10388,7 +14022,7 @@
       </c>
       <c r="Q19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,Q$18)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -10397,15 +14031,15 @@
       </c>
       <c r="B20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,B$18)</f>
-        <v>460</v>
+        <v>1060</v>
       </c>
       <c r="C20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,C$18)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,D$18)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,E$18)</f>
@@ -10466,7 +14100,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,B$18)</f>
-        <v>996</v>
+        <v>1776</v>
       </c>
       <c r="C21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,C$18)</f>
@@ -10486,7 +14120,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,G$18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,H$18)</f>
@@ -10535,7 +14169,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,B$18)</f>
-        <v>452</v>
+        <v>1252</v>
       </c>
       <c r="C22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,C$18)</f>
@@ -10604,15 +14238,15 @@
       </c>
       <c r="B23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,B$18)</f>
-        <v>586</v>
+        <v>1208</v>
       </c>
       <c r="C23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,C$18)</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,D$18)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,E$18)</f>
@@ -10673,7 +14307,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,B$18)</f>
-        <v>1206</v>
+        <v>1766</v>
       </c>
       <c r="C24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,C$18)</f>
@@ -10681,11 +14315,11 @@
       </c>
       <c r="D24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,D$18)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,E$18)</f>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,F$18)</f>
@@ -10697,7 +14331,7 @@
       </c>
       <c r="H24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,H$18)</f>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,I$18)</f>
@@ -10705,11 +14339,11 @@
       </c>
       <c r="J24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,J$18)</f>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,K$18)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,L$18)</f>
@@ -10733,7 +14367,7 @@
       </c>
       <c r="Q24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,Q$18)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -10811,11 +14445,11 @@
       </c>
       <c r="B26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,B$18)</f>
-        <v>494</v>
+        <v>889</v>
       </c>
       <c r="C26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,C$18)</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,D$18)</f>
@@ -10823,7 +14457,7 @@
       </c>
       <c r="E26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,E$18)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,F$18)</f>
@@ -11168,7 +14802,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,E$18)</f>
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,F$18)</f>
@@ -11180,7 +14814,7 @@
       </c>
       <c r="H31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,H$18)</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,I$18)</f>
@@ -11188,11 +14822,11 @@
       </c>
       <c r="J31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,J$18)</f>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,K$18)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,L$18)</f>
@@ -11216,7 +14850,7 @@
       </c>
       <c r="Q31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,Q$18)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11226,7 +14860,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10">
         <f t="shared" ref="E32:P32" si="1">E14-SUM(E19:E29)</f>
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
@@ -11234,11 +14868,11 @@
       </c>
       <c r="G32" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="1"/>
@@ -11250,7 +14884,7 @@
       </c>
       <c r="K32" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="1"/>
@@ -11274,7 +14908,7 @@
       </c>
       <c r="Q32" s="10">
         <f>Q14-SUM(Q19:Q29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11394,7 +15028,7 @@
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11409,7 +15043,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:Q35" si="3">D3-D20</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="3"/>
@@ -11488,7 +15122,7 @@
       </c>
       <c r="G36" s="5">
         <f>G4-G21</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="4"/>
@@ -11677,11 +15311,11 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:Q39" si="7">D7-D24</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="7"/>
@@ -11693,7 +15327,7 @@
       </c>
       <c r="H39" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
@@ -11701,11 +15335,11 @@
       </c>
       <c r="J39" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="7"/>
@@ -11815,7 +15449,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="9"/>
@@ -12162,7 +15796,7 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="13"/>
@@ -12174,7 +15808,7 @@
       </c>
       <c r="K46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="13"/>

--- a/角磨机分析.xlsx
+++ b/角磨机分析.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="3" r:id="rId1"/>
     <sheet name="角磨机分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$315</definedName>
-    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$329</definedName>
+    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$329</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="429">
   <si>
     <t>BarCode</t>
   </si>
@@ -1292,6 +1292,48 @@
   </si>
   <si>
     <t>e656fa635f8a69fa01a58b697c8561e2</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f8e4ad301bc108374cd7248</t>
+  </si>
+  <si>
+    <t>e656fa635f8e4b2101c32e917e9b9a50</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f96a0380203806d63bce2e8</t>
+  </si>
+  <si>
+    <t>8e5be7055f98cc90026acb2d488c8cf5</t>
+  </si>
+  <si>
+    <t>1b64dd7b5f98dd52021521e67d300c74</t>
+  </si>
+  <si>
+    <t>c54bd3a25f99307801ba380d117f3010</t>
+  </si>
+  <si>
+    <t>b8df3bd65f9a3bc901e1968f3c417b6f</t>
+  </si>
+  <si>
+    <t>38597c165f9b9eb1000a97cb1dee127f</t>
+  </si>
+  <si>
+    <t>2fd465895f9b9efd000943c50add8436</t>
+  </si>
+  <si>
+    <t>2fd465895f9ba0d000094e12716b71f6</t>
+  </si>
+  <si>
+    <t>2fd465895f9bfb2a000cac12694aba3c</t>
+  </si>
+  <si>
+    <t>38597c165f9f826e0029e0db25a6223e</t>
+  </si>
+  <si>
+    <t>b333e0365f9fc49f00257d23395df399</t>
+  </si>
+  <si>
+    <t>dd8d23355fa124cb0027abb20ad0cd01</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K315"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I315" sqref="I315"/>
+    <sheetView topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329:XFD329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12779,8 +12821,498 @@
         <v>44121.409918981481</v>
       </c>
     </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>15</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D316" s="1">
+        <v>230</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H316" s="1">
+        <v>5</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K316" s="11">
+        <v>44124.352719907409</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>15</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D317" s="1">
+        <v>230</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H317" s="1">
+        <v>13</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K317" s="11">
+        <v>44124.353622685187</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="1">
+        <v>20</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H318" s="1">
+        <v>52</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K318" s="11">
+        <v>44130.672847222224</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="1">
+        <v>20</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H319" s="1">
+        <v>600</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="11">
+        <v>44132.321273148147</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>14</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D320" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H320" s="1">
+        <v>2</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K320" s="11">
+        <v>44132.371979166666</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>14</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D321" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H321" s="1">
+        <v>2</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K321" s="11">
+        <v>44132.617291666669</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>15</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D322" s="1">
+        <v>230</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H322" s="1">
+        <v>2</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K322" s="11">
+        <v>44133.410393518519</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H323" s="1">
+        <v>1</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K323" s="11">
+        <v>44134.460925925923</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>3</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D324" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H324" s="1">
+        <v>1</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K324" s="11">
+        <v>44134.461817129632</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>3</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H325" s="1">
+        <v>1</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K325" s="11">
+        <v>44134.467210648145</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" s="1">
+        <v>20</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H326" s="1">
+        <v>280</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K326" s="11">
+        <v>44134.734918981485</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" s="1">
+        <v>20</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H327" s="1">
+        <v>330</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K327" s="11">
+        <v>44137.411249999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="1">
+        <v>20</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" s="1">
+        <v>220</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K328" s="11">
+        <v>44137.60738425926</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" s="1">
+        <v>20</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H329" s="1">
+        <v>40</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K329" s="11">
+        <v>44138.650856481479</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K315"/>
+  <autoFilter ref="B1:K329"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12791,8 +13323,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12944,11 +13476,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -13082,7 +13614,7 @@
       </c>
       <c r="C5" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$5,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$5,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
@@ -13366,7 +13898,7 @@
       </c>
       <c r="E9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -13414,7 +13946,7 @@
       </c>
       <c r="Q9" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$9,原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资部")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -13962,7 +14494,7 @@
       </c>
       <c r="B19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,B$18)</f>
-        <v>3570</v>
+        <v>4170</v>
       </c>
       <c r="C19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,C$18)</f>
@@ -14031,7 +14563,7 @@
       </c>
       <c r="B20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,B$18)</f>
-        <v>1060</v>
+        <v>1112</v>
       </c>
       <c r="C20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,C$18)</f>
@@ -14039,7 +14571,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,D$18)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,E$18)</f>
@@ -14100,7 +14632,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,B$18)</f>
-        <v>1776</v>
+        <v>2106</v>
       </c>
       <c r="C21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,C$18)</f>
@@ -14169,7 +14701,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,B$18)</f>
-        <v>1252</v>
+        <v>1472</v>
       </c>
       <c r="C22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,C$18)</f>
@@ -14238,7 +14770,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,B$18)</f>
-        <v>1208</v>
+        <v>1248</v>
       </c>
       <c r="C23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,C$18)</f>
@@ -14307,7 +14839,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,B$18)</f>
-        <v>1766</v>
+        <v>2046</v>
       </c>
       <c r="C24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,C$18)</f>
@@ -14505,7 +15037,7 @@
       </c>
       <c r="Q26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,Q$18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -14908,7 +15440,7 @@
       </c>
       <c r="Q32" s="10">
         <f>Q14-SUM(Q19:Q29)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -15449,7 +15981,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="9"/>

--- a/角磨机分析.xlsx
+++ b/角磨机分析.xlsx
@@ -11,8 +11,8 @@
     <sheet name="角磨机分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$329</definedName>
-    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$359</definedName>
+    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$359</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="462">
   <si>
     <t>BarCode</t>
   </si>
@@ -1334,6 +1334,105 @@
   </si>
   <si>
     <t>dd8d23355fa124cb0027abb20ad0cd01</t>
+  </si>
+  <si>
+    <t>曹耀春</t>
+  </si>
+  <si>
+    <t>dd8d23355fa1395200286e1f26ddb30f</t>
+  </si>
+  <si>
+    <t>桂晓明</t>
+  </si>
+  <si>
+    <t>dd8d23355fa13b380028819569392305</t>
+  </si>
+  <si>
+    <t>3dfe72d65fa4b1b9004ff99c1f55a713</t>
+  </si>
+  <si>
+    <t>9de454c45fa4bc1b0045130b5bd1c6f0</t>
+  </si>
+  <si>
+    <t>38597c165fa65ba6006f855514ab1759</t>
+  </si>
+  <si>
+    <t>2fd465895fa7c8bc0067fb2f5d0410b2</t>
+  </si>
+  <si>
+    <t>曹学旺</t>
+  </si>
+  <si>
+    <t>3dfe72d65fac8f4f0093b0627a1c14c3</t>
+  </si>
+  <si>
+    <t>9de454c45fadfe4f008d3f9c1c04cc7d</t>
+  </si>
+  <si>
+    <t>2fd465895fadfe4f009b076c5dd809fd</t>
+  </si>
+  <si>
+    <t>38597c165fadfe4f00b91b7f38d24d62</t>
+  </si>
+  <si>
+    <t>dd8d23355fadfe4f008418583edebd74</t>
+  </si>
+  <si>
+    <t>2fd465895fae0efe009bb7191fe3dfcf</t>
+  </si>
+  <si>
+    <t>3dfe72d65fb080b600c5bd736500e8a0</t>
+  </si>
+  <si>
+    <t>3dfe72d65fb0879600c626c244787b23</t>
+  </si>
+  <si>
+    <t>2fd465895fb0881a00bc9dae29286779</t>
+  </si>
+  <si>
+    <t>38597c165fb0889e00e040824ae52437</t>
+  </si>
+  <si>
+    <t>9de454c45fb088da00abbe5b1cd98561</t>
+  </si>
+  <si>
+    <t>d52d5a735fb352dd00bac0fc7b7378ef</t>
+  </si>
+  <si>
+    <t>0bcbdde05fb7434f00129ed1440e8681</t>
+  </si>
+  <si>
+    <t>0bcbdde05fb7434f00129ed275ee7d9f</t>
+  </si>
+  <si>
+    <t>0a4429175fb74ee400152c0974e30f80</t>
+  </si>
+  <si>
+    <t>2a7b532a5fb74ee40017c7771cfe1619</t>
+  </si>
+  <si>
+    <t>e62469b25fb74ee40018506721416566</t>
+  </si>
+  <si>
+    <t>2a7b532a5fb74ee40017c77f2ca92212</t>
+  </si>
+  <si>
+    <t>b1a52c595fb74fa7001b8ab417987a38</t>
+  </si>
+  <si>
+    <t>0288fce75fb74fa7001441da08cfe585</t>
+  </si>
+  <si>
+    <t>2a7b532a5fb766510018a9f70c95b989</t>
+  </si>
+  <si>
+    <t>6127fe145fb8a54c0027afc1626db0b1</t>
+  </si>
+  <si>
+    <t>6127fe145fb8d223002b058419b18d90</t>
+  </si>
+  <si>
+    <t>6127fe145fb8d223002b05871c702447</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K329"/>
+  <dimension ref="A1:K359"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329:XFD329"/>
+    <sheetView topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A359" sqref="A279:XFD359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13311,8 +13410,1058 @@
         <v>44138.650856481479</v>
       </c>
     </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="1">
+        <v>20</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H330" s="1">
+        <v>300</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K330" s="11">
+        <v>44138.71166666667</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="1">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H331" s="1">
+        <v>80</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K331" s="11">
+        <v>44138.717303240737</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>14</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D332" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H332" s="1">
+        <v>2</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K332" s="11">
+        <v>44141.343865740739</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>2</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" s="1">
+        <v>20</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H333" s="1">
+        <v>156</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K333" s="11">
+        <v>44141.374745370369</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="1">
+        <v>20</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" s="1">
+        <v>316</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K334" s="11">
+        <v>44142.60597222222</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>2</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="1">
+        <v>20</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H335" s="1">
+        <v>26</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K335" s="11">
+        <v>44143.687708333331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1">
+        <v>2</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" s="1">
+        <v>20</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H336" s="1">
+        <v>40</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K336" s="11">
+        <v>44147.310150462959</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H337" s="1">
+        <v>8</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K337" s="11">
+        <v>44148.397557870368</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>7</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H338" s="1">
+        <v>6</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K338" s="11">
+        <v>44148.397557870368</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1">
+        <v>3</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D339" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H339" s="1">
+        <v>1</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K339" s="11">
+        <v>44148.397557870368</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>12</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D340" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H340" s="1">
+        <v>5</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K340" s="11">
+        <v>44148.397557870368</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1">
+        <v>12</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D341" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K341" s="11">
+        <v>44148.44699074074</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>15</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D342" s="1">
+        <v>230</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H342" s="1">
+        <v>5</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K342" s="11">
+        <v>44150.302060185182</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D343" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H343" s="1">
+        <v>18</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K343" s="11">
+        <v>44150.322430555556</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1">
+        <v>12</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D344" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H344" s="1">
+        <v>13</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K344" s="11">
+        <v>44150.323958333334</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>7</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D345" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H345" s="1">
+        <v>4</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K345" s="11">
+        <v>44150.325486111113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1">
+        <v>9</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D346" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H346" s="1">
+        <v>5</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K346" s="11">
+        <v>44150.326168981483</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>15</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D347" s="1">
+        <v>230</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H347" s="1">
+        <v>7</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K347" s="11">
+        <v>44152.441770833335</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D348" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H348" s="1">
+        <v>7</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K348" s="11">
+        <v>44155.428668981483</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>7</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D349" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H349" s="1">
+        <v>5</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K349" s="11">
+        <v>44155.428668981483</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>12</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D350" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H350" s="1">
+        <v>13</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K350" s="11">
+        <v>44155.46298611111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H351" s="1">
+        <v>18</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K351" s="11">
+        <v>44155.46298611111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>7</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D352" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H352" s="1">
+        <v>4</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K352" s="11">
+        <v>44155.46298611111</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>9</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D353" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H353" s="1">
+        <v>5</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K353" s="11">
+        <v>44155.46298611111</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>7</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D354" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H354" s="1">
+        <v>1</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K354" s="11">
+        <v>44155.465243055558</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H355" s="1">
+        <v>1</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K355" s="11">
+        <v>44155.465243055558</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1">
+        <v>14</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D356" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H356" s="1">
+        <v>2</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K356" s="11">
+        <v>44155.533483796295</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1">
+        <v>14</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D357" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H357" s="1">
+        <v>2</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K357" s="11">
+        <v>44156.477523148147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1">
+        <v>7</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D358" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H358" s="1">
+        <v>5</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K358" s="11">
+        <v>44156.610381944447</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D359" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H359" s="1">
+        <v>7</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K359" s="11">
+        <v>44156.610381944447</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K329"/>
+  <autoFilter ref="B1:K359"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13324,7 +14473,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13411,7 +14560,7 @@
       </c>
       <c r="D2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -13476,11 +14625,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -13760,7 +14909,7 @@
       </c>
       <c r="E7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -13772,7 +14921,7 @@
       </c>
       <c r="H7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,I$1,原始数据!$J:$J,"物资部")</f>
@@ -13780,11 +14929,11 @@
       </c>
       <c r="J7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,J$1,原始数据!$J:$J,"物资部")</f>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$7,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -13959,7 +15108,7 @@
       </c>
       <c r="C10" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$10,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$10,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
@@ -14243,7 +15392,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -14267,7 +15416,7 @@
       </c>
       <c r="K14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -14312,7 +15461,7 @@
       </c>
       <c r="E15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,E$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,F$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -14336,7 +15485,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,K$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,L$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -14381,7 +15530,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.73134328358208955</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
@@ -14405,7 +15554,7 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.91304347826086951</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
@@ -14494,7 +15643,7 @@
       </c>
       <c r="B19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,B$18)</f>
-        <v>4170</v>
+        <v>4326</v>
       </c>
       <c r="C19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,C$18)</f>
@@ -14502,7 +15651,7 @@
       </c>
       <c r="D19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,D$18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,E$18)</f>
@@ -14563,7 +15712,7 @@
       </c>
       <c r="B20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,B$18)</f>
-        <v>1112</v>
+        <v>1428</v>
       </c>
       <c r="C20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,C$18)</f>
@@ -14770,7 +15919,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,B$18)</f>
-        <v>1248</v>
+        <v>1548</v>
       </c>
       <c r="C23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,C$18)</f>
@@ -14851,7 +16000,7 @@
       </c>
       <c r="E24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,E$18)</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,F$18)</f>
@@ -14875,7 +16024,7 @@
       </c>
       <c r="K24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,K$18)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,L$18)</f>
@@ -14977,7 +16126,7 @@
       </c>
       <c r="B26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,B$18)</f>
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="C26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,C$18)</f>
@@ -15184,7 +16333,7 @@
       </c>
       <c r="B29" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$29,原始数据!$C:$C,B$18)</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$29,原始数据!$C:$C,C$18)</f>
@@ -15334,7 +16483,7 @@
       </c>
       <c r="E31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,E$18)</f>
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,F$18)</f>
@@ -15346,7 +16495,7 @@
       </c>
       <c r="H31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,H$18)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,I$18)</f>
@@ -15354,11 +16503,11 @@
       </c>
       <c r="J31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,J$18)</f>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="K31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,K$18)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,L$18)</f>
@@ -15382,7 +16531,7 @@
       </c>
       <c r="Q31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,Q$18)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -15575,7 +16724,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:Q35" si="3">D3-D20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="3"/>
@@ -15847,7 +16996,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="7"/>
@@ -15859,7 +17008,7 @@
       </c>
       <c r="H39" s="5">
         <f t="shared" si="7"/>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
@@ -15867,11 +17016,11 @@
       </c>
       <c r="J39" s="5">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="7"/>
@@ -16316,7 +17465,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ref="E46:Q46" si="13">E31-E14-E15</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="13"/>
@@ -16328,7 +17477,7 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="13"/>
@@ -16336,11 +17485,11 @@
       </c>
       <c r="J46" s="5">
         <f>J31-J14-J15</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" si="13"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="13"/>
@@ -16364,7 +17513,7 @@
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/角磨机分析.xlsx
+++ b/角磨机分析.xlsx
@@ -11,8 +11,8 @@
     <sheet name="角磨机分析" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$B$1:$K$359</definedName>
-    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$359</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">原始数据!$A$1:$K$409</definedName>
+    <definedName name="维修记录" localSheetId="0">原始数据!$A$1:$K$409</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="514">
   <si>
     <t>BarCode</t>
   </si>
@@ -1433,6 +1433,162 @@
   </si>
   <si>
     <t>6127fe145fb8d223002b05871c702447</t>
+  </si>
+  <si>
+    <t>e62469b25fb9f7570038f99f5186eabb</t>
+  </si>
+  <si>
+    <t>熊建</t>
+  </si>
+  <si>
+    <t>c89bd61c5fba49e4003318b174db7f6d</t>
+  </si>
+  <si>
+    <t>2a7b532a5fba49e4003d716e498ed277</t>
+  </si>
+  <si>
+    <t>b1a52c595fbdb6610067b25f7d6b0260</t>
+  </si>
+  <si>
+    <t>e62469b25fc20dc7007f2e196ad12a42</t>
+  </si>
+  <si>
+    <t>0bcbdde05fc22a2c0064dea81070e953</t>
+  </si>
+  <si>
+    <t>6127fe145fc22a2c007f1a403a975086</t>
+  </si>
+  <si>
+    <t>0bcbdde05fc22a2c0064dea96379771c</t>
+  </si>
+  <si>
+    <t>b1a52c595fc22a2c0092e64a6f78a4d3</t>
+  </si>
+  <si>
+    <t>b1a52c595fc22ab40092ee4571629ba2</t>
+  </si>
+  <si>
+    <t>b1a52c595fc22ab40092ee473bb36c51</t>
+  </si>
+  <si>
+    <t>0288fce75fc22ab4006a2ae705e69e6c</t>
+  </si>
+  <si>
+    <t>6127fe145fc22ab5007f20eb4d74a897</t>
+  </si>
+  <si>
+    <t>0a4429175fc5a902008a20221c1e3f9c</t>
+  </si>
+  <si>
+    <t>e62469b25fc5fdcb00a27b904e26cb99</t>
+  </si>
+  <si>
+    <t>e62469b25fc6036b00a2c15a108fb55c</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc6216c0085c55c7e0ead39</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc6216c0085c55d40b005b2</t>
+  </si>
+  <si>
+    <t>0a4429175fc8511900a79a6f1629609c</t>
+  </si>
+  <si>
+    <t>b1a52c595fc8511900dbf3193773a6ad</t>
+  </si>
+  <si>
+    <t>6127fe145fc85c9a00be70db60bf74eb</t>
+  </si>
+  <si>
+    <t>6127fe145fc85c9a00be70dc44b4f83b</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc85c9a009c3f366b1a85b8</t>
+  </si>
+  <si>
+    <t>0288fce75fc85c9a009f1d680f4a02c3</t>
+  </si>
+  <si>
+    <t>6127fe145fc85c9a00be70dd12da6b4b</t>
+  </si>
+  <si>
+    <t>0288fce75fc85c9a009f1d694d05a6eb</t>
+  </si>
+  <si>
+    <t>0288fce75fc85c9a009f1d6b5857ff8a</t>
+  </si>
+  <si>
+    <t>0288fce75fc85c9a009f1d6c33fb37c4</t>
+  </si>
+  <si>
+    <t>电风扇</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc85c9a009c3f3734935746</t>
+  </si>
+  <si>
+    <t>0288fce75fc86558009f82bc691dc095</t>
+  </si>
+  <si>
+    <t>0bcbdde05fc86558009744050564c091</t>
+  </si>
+  <si>
+    <t>0288fce75fc86558009f82bd0122bbf7</t>
+  </si>
+  <si>
+    <t>2a7b532a5fc8655800bb7059679131a4</t>
+  </si>
+  <si>
+    <t>6127fe145fc8655800bede2f50700799</t>
+  </si>
+  <si>
+    <t>e62469b25fc8655800c0ea2e09327340</t>
+  </si>
+  <si>
+    <t>0288fce75fc86558009f82bf6e203f3c</t>
+  </si>
+  <si>
+    <t>2a7b532a5fc8655800bb70606cdb8895</t>
+  </si>
+  <si>
+    <t>2a7b532a5fc8655800bb706321d32786</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc8a379009f9ec457f403b2</t>
+  </si>
+  <si>
+    <t>0bcbdde05fc8bd62009b6e19351cae9f</t>
+  </si>
+  <si>
+    <t>6127fe145fc8bd6300c4176e5fa7a741</t>
+  </si>
+  <si>
+    <t>0bcbdde05fc8bd63009b6e1c32d7b723</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc8bd6300a0f228260df40f</t>
+  </si>
+  <si>
+    <t>e62469b25fc8bd9200c63f17213cb70c</t>
+  </si>
+  <si>
+    <t>0288fce75fc8bdbe00a3d43c50ac50f3</t>
+  </si>
+  <si>
+    <t>c89bd61c5fc8bdef00a0f9d8614e1e65</t>
+  </si>
+  <si>
+    <t>b1a52c595fca0edf00fa12ef4369faa2</t>
+  </si>
+  <si>
+    <t>b1a52c595fcb0435010620bd2386f54e</t>
+  </si>
+  <si>
+    <t>2a7b532a5fcc50a200ed43976140db7b</t>
+  </si>
+  <si>
+    <t>b1a52c595fcdbace012bcb03586dc847</t>
   </si>
 </sst>
 </file>
@@ -1877,15 +2033,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K359"/>
+  <dimension ref="A1:K409"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A359" sqref="A279:XFD359"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -14460,10 +14616,1761 @@
         <v>44156.610381944447</v>
       </c>
     </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>3</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D360" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H360" s="1">
+        <v>2</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K360" s="11">
+        <v>44157.479131944441</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1">
+        <v>3</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" s="1">
+        <v>7</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K361" s="11">
+        <v>44157.723726851851</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H362" s="1">
+        <v>11</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K362" s="11">
+        <v>44157.723726851851</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>15</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D363" s="1">
+        <v>230</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H363" s="1">
+        <v>3</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K363" s="11">
+        <v>44160.321828703702</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>14</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D364" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H364" s="1">
+        <v>2</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K364" s="11">
+        <v>44163.613761574074</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H365" s="1">
+        <v>15</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K365" s="11">
+        <v>44163.697893518518</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1">
+        <v>7</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D366" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H366" s="1">
+        <v>3</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K366" s="11">
+        <v>44163.697893518518</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>12</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H367" s="1">
+        <v>20</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K367" s="11">
+        <v>44163.697893518518</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>9</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D368" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H368" s="1">
+        <v>5</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K368" s="11">
+        <v>44163.697893518518</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H369" s="1">
+        <v>3</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K369" s="11">
+        <v>44163.699479166666</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>3</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D370" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H370" s="1">
+        <v>1</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K370" s="11">
+        <v>44163.699479166666</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>7</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D371" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H371" s="1">
+        <v>1</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K371" s="11">
+        <v>44163.699479166666</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>12</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H372" s="1">
+        <v>1</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K372" s="11">
+        <v>44163.699479166666</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" s="1">
+        <v>20</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H373" s="1">
+        <v>378</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K373" s="11">
+        <v>44166.349259259259</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="1">
+        <v>20</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H374" s="1">
+        <v>330</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K374" s="11">
+        <v>44166.600486111114</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" s="1">
+        <v>20</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H375" s="1">
+        <v>316</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K375" s="11">
+        <v>44166.6171412037</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1">
+        <v>3</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D376" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H376" s="1">
+        <v>7</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K376" s="11">
+        <v>44166.706053240741</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>1</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H377" s="1">
+        <v>11</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K377" s="11">
+        <v>44166.706053240741</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>1</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D378" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H378" s="1">
+        <v>11</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K378" s="11">
+        <v>44168.364340277774</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>3</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D379" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H379" s="1">
+        <v>1</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="11">
+        <v>44168.364340277774</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>11</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D380" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H380" s="1">
+        <v>6</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K380" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>4</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D381" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H381" s="1">
+        <v>10</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K381" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>3</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D382" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H382" s="1">
+        <v>1</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K382" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>7</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D383" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H383" s="1">
+        <v>6</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K383" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>1</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D384" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H384" s="1">
+        <v>38</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K384" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>5</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D385" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H385" s="1">
+        <v>2</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K385" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>16</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D386" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H386" s="1">
+        <v>1</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K386" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>6</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D387" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H387" s="1">
+        <v>1</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K387" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>17</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D388" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H388" s="1">
+        <v>1</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K388" s="11">
+        <v>44168.398414351854</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D389" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H389" s="1">
+        <v>38</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K389" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>11</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D390" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H390" s="1">
+        <v>6</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K390" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>4</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D391" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H391" s="1">
+        <v>10</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K391" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>7</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D392" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H392" s="1">
+        <v>6</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K392" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>6</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D393" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H393" s="1">
+        <v>1</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K393" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>3</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D394" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H394" s="1">
+        <v>1</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K394" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>16</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D395" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H395" s="1">
+        <v>1</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K395" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>17</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D396" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H396" s="1">
+        <v>1</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K396" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>5</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D397" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H397" s="1">
+        <v>2</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K397" s="11">
+        <v>44168.424328703702</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H398" s="1">
+        <v>90</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K398" s="11">
+        <v>44168.608414351853</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>1</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D399" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H399" s="1">
+        <v>4</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K399" s="11">
+        <v>44168.685208333336</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
+        <v>7</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D400" s="1">
+        <v>2150</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H400" s="1">
+        <v>3</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K400" s="11">
+        <v>44168.685208333336</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1">
+        <v>12</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D401" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H401" s="1">
+        <v>18</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K401" s="11">
+        <v>44168.685208333336</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>9</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D402" s="1">
+        <v>4500</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H402" s="1">
+        <v>5</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K402" s="11">
+        <v>44168.685208333336</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>2</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" s="1">
+        <v>20</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H403" s="1">
+        <v>560</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K403" s="11">
+        <v>44168.685752314814</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>2</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H404" s="1">
+        <v>242</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K404" s="11">
+        <v>44168.686261574076</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>2</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H405" s="1">
+        <v>84</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K405" s="11">
+        <v>44168.686828703707</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H406" s="1">
+        <v>60</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K406" s="11">
+        <v>44169.685150462959</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>15</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D407" s="1">
+        <v>230</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H407" s="1">
+        <v>6</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K407" s="11">
+        <v>44170.413206018522</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H408" s="1">
+        <v>40</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K408" s="11">
+        <v>44171.397037037037</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>14</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D409" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H409" s="1">
+        <v>2</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K409" s="11">
+        <v>44172.470150462963</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K359"/>
+  <autoFilter ref="A1:K409"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14472,8 +16379,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14564,15 +16471,15 @@
       </c>
       <c r="E2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,G$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
@@ -14580,7 +16487,7 @@
       </c>
       <c r="I2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,I$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,J$1,原始数据!$J:$J,"物资部")</f>
@@ -14588,7 +16495,7 @@
       </c>
       <c r="K2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -14596,7 +16503,7 @@
       </c>
       <c r="M2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,M$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,N$1,原始数据!$J:$J,"物资部")</f>
@@ -14608,11 +16515,11 @@
       </c>
       <c r="P2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,P$1,原始数据!$J:$J,"物资部")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$2,原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资部")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -14625,11 +16532,11 @@
       </c>
       <c r="C3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,C$1,原始数据!$J:$J,"物资部")</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,D$1,原始数据!$J:$J,"物资部")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$3,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
@@ -15392,7 +17299,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,E$1,原始数据!$J:$J,"物资部")</f>
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,F$1,原始数据!$J:$J,"物资部")</f>
@@ -15404,7 +17311,7 @@
       </c>
       <c r="H14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,H$1,原始数据!$J:$J,"物资部")</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,I$1,原始数据!$J:$J,"物资部")</f>
@@ -15412,11 +17319,11 @@
       </c>
       <c r="J14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,J$1,原始数据!$J:$J,"物资部")</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,K$1,原始数据!$J:$J,"物资部")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,$A$14,原始数据!$C:$C,L$1,原始数据!$J:$J,"物资部")</f>
@@ -15461,7 +17368,7 @@
       </c>
       <c r="E15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,E$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,F$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -15481,11 +17388,11 @@
       </c>
       <c r="J15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,J$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,K$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,L$1,原始数据!$J:$J,"物资机具未修好")</f>
@@ -15509,7 +17416,7 @@
       </c>
       <c r="Q15" s="2">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"供应商malek",原始数据!$C:$C,Q$1,原始数据!$J:$J,"物资机具未修好")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -15530,7 +17437,7 @@
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>0.73134328358208955</v>
+        <v>0.74342105263157898</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
@@ -15550,11 +17457,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0.79245283018867929</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.89655172413793105</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
@@ -15578,7 +17485,7 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="0"/>
-        <v>0.83783783783783783</v>
+        <v>0.81578947368421051</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -15643,7 +17550,7 @@
       </c>
       <c r="B19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,B$18)</f>
-        <v>4326</v>
+        <v>4704</v>
       </c>
       <c r="C19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,C$18)</f>
@@ -15655,7 +17562,7 @@
       </c>
       <c r="E19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,E$18)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,F$18)</f>
@@ -15703,7 +17610,7 @@
       </c>
       <c r="Q19" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A19,原始数据!$C:$C,Q$18)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -15712,7 +17619,7 @@
       </c>
       <c r="B20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,B$18)</f>
-        <v>1428</v>
+        <v>1828</v>
       </c>
       <c r="C20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,C$18)</f>
@@ -15720,7 +17627,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,D$18)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$20,原始数据!$C:$C,E$18)</f>
@@ -15781,7 +17688,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,B$18)</f>
-        <v>2106</v>
+        <v>2436</v>
       </c>
       <c r="C21" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$21,原始数据!$C:$C,C$18)</f>
@@ -15850,7 +17757,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,B$18)</f>
-        <v>1472</v>
+        <v>1714</v>
       </c>
       <c r="C22" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$22,原始数据!$C:$C,C$18)</f>
@@ -15919,7 +17826,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,B$18)</f>
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="C23" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$23,原始数据!$C:$C,C$18)</f>
@@ -15988,7 +17895,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,B$18)</f>
-        <v>2046</v>
+        <v>2606</v>
       </c>
       <c r="C24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,C$18)</f>
@@ -16000,7 +17907,7 @@
       </c>
       <c r="E24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,E$18)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,F$18)</f>
@@ -16012,7 +17919,7 @@
       </c>
       <c r="H24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,H$18)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,I$18)</f>
@@ -16020,11 +17927,11 @@
       </c>
       <c r="J24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,J$18)</f>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,K$18)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L24" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$24,原始数据!$C:$C,L$18)</f>
@@ -16126,7 +18033,7 @@
       </c>
       <c r="B26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,B$18)</f>
-        <v>1009</v>
+        <v>1159</v>
       </c>
       <c r="C26" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$26,原始数据!$C:$C,C$18)</f>
@@ -16483,15 +18390,15 @@
       </c>
       <c r="E31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,E$18)</f>
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="F31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,F$18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,G$18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,H$18)</f>
@@ -16499,7 +18406,7 @@
       </c>
       <c r="I31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,I$18)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,J$18)</f>
@@ -16507,7 +18414,7 @@
       </c>
       <c r="K31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,K$18)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,L$18)</f>
@@ -16515,7 +18422,7 @@
       </c>
       <c r="M31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,M$18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,N$18)</f>
@@ -16527,11 +18434,11 @@
       </c>
       <c r="P31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,P$18)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q31" s="5">
         <f>SUMIFS(原始数据!$H:$H,原始数据!$I:$I,"物资部",原始数据!$J:$J,$A$31,原始数据!$C:$C,Q$18)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -16561,7 +18468,7 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" si="1"/>
@@ -16589,7 +18496,7 @@
       </c>
       <c r="Q32" s="10">
         <f>Q14-SUM(Q19:Q29)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -16661,15 +18568,15 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="2"/>
@@ -16677,7 +18584,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="2"/>
@@ -16685,7 +18592,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="2"/>
@@ -16693,7 +18600,7 @@
       </c>
       <c r="M34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="2"/>
@@ -16705,11 +18612,11 @@
       </c>
       <c r="P34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -16996,7 +18903,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="7"/>
@@ -17008,7 +18915,7 @@
       </c>
       <c r="H39" s="5">
         <f t="shared" si="7"/>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
@@ -17016,11 +18923,11 @@
       </c>
       <c r="J39" s="5">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="7"/>
@@ -17465,31 +19372,31 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ref="E46:Q46" si="13">E31-E14-E15</f>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" s="5">
         <f>J31-J14-J15</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46" s="5">
         <f t="shared" si="13"/>
@@ -17497,7 +19404,7 @@
       </c>
       <c r="M46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="5">
         <f t="shared" si="13"/>
@@ -17509,11 +19416,11 @@
       </c>
       <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
